--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13065"/>
+    <workbookView windowWidth="28200" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>senarioNo</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
   </si>
   <si>
     <t>2</t>
@@ -60,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -80,6 +83,14 @@
       <charset val="128"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,7 +100,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,45 +152,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,55 +196,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +242,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,31 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,115 +386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +441,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,37 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,9 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +535,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -556,121 +559,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1048,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1059,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1079,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1119,13 +1122,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1139,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -40,7 +40,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">1 </t>
+    <t xml:space="preserve">0 </t>
   </si>
   <si>
     <t>2</t>
@@ -63,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -83,6 +83,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -91,21 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -114,23 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,24 +121,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,54 +188,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,181 +242,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +457,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,11 +478,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,22 +535,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -559,121 +559,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>senarioNo</t>
   </si>
@@ -34,22 +34,25 @@
     <t>backgroundImageNo</t>
   </si>
   <si>
+    <t>aaaa,bbbb,ccc</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
     <t>aaaa</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
   </si>
   <si>
     <t>cccc</t>
@@ -63,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,6 +86,14 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -90,6 +101,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -98,15 +138,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +171,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,48 +193,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,7 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,30 +217,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,49 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,127 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,20 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -508,7 +493,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,7 +538,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,13 +547,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -559,121 +562,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1007,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1074,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1102,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1122,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1142,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12645"/>
+    <workbookView windowWidth="14760" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>senarioNo</t>
   </si>
@@ -34,19 +34,31 @@
     <t>backgroundImageNo</t>
   </si>
   <si>
+    <t>bgmNo</t>
+  </si>
+  <si>
+    <t>branchMessageString</t>
+  </si>
+  <si>
+    <t>autoScenarioNo</t>
+  </si>
+  <si>
     <t>aaaa,bbbb,ccc</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
+    <t xml:space="preserve">-1 </t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>ssss</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>xxxxx</t>
@@ -66,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -95,6 +107,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -102,61 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,7 +197,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,181 +257,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +475,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,10 +507,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -492,8 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,24 +534,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,7 +550,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,7 +559,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,121 +574,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -1018,9 +1030,10 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,125 +1052,170 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14760" windowHeight="7710"/>
+    <workbookView windowWidth="28200" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -98,6 +98,21 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -120,69 +135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +150,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -203,9 +189,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +205,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +233,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,13 +257,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,32 +460,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +496,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +527,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,7 +550,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,13 +559,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -574,121 +574,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,8 +1018,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13065"/>
+    <workbookView windowWidth="28200" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>senarioNo</t>
   </si>
@@ -46,31 +46,49 @@
     <t>aaaa,bbbb,ccc</t>
   </si>
   <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 </t>
+  </si>
+  <si>
+    <t>0,1,0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">-1 </t>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>xxxxx</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>aaaa</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>cccc</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>dddd</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -78,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,6 +116,21 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -107,7 +140,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,21 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,59 +231,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -212,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,181 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,20 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,9 +510,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,32 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,22 +568,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -574,121 +592,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -700,6 +718,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1040,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1084,6 +1105,9 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
@@ -1093,16 +1117,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1110,8 +1134,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1119,16 +1143,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1136,8 +1160,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1145,16 +1169,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1162,8 +1186,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>4</v>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1171,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1188,8 +1212,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>5</v>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1197,16 +1221,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1214,8 +1238,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>6</v>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12390"/>
+    <workbookView windowWidth="28200" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -116,96 +116,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -214,8 +124,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +221,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -254,7 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,55 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,121 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,21 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -504,17 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,6 +525,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,145 +568,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
@@ -1132,10 +1132,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1160,8 +1163,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1186,8 +1192,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1212,8 +1221,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1238,8 +1250,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>senarioNo</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>autoScenarioNo</t>
+  </si>
+  <si>
+    <t>endingNo</t>
   </si>
   <si>
     <t>aaaa,bbbb,ccc</t>
@@ -116,6 +119,104 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -132,71 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,56 +241,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +477,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,30 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,17 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,7 +571,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,13 +580,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -592,121 +595,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1052,9 +1055,10 @@
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,22 +1086,25 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1106,27 +1113,30 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1135,27 +1145,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1164,27 +1177,30 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1193,27 +1209,30 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1222,27 +1241,30 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1251,10 +1273,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13065"/>
+    <workbookView windowWidth="9900" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>senarioNo</t>
   </si>
@@ -46,16 +46,13 @@
     <t>endingNo</t>
   </si>
   <si>
-    <t>aaaa,bbbb,ccc</t>
-  </si>
-  <si>
-    <t>2,2,2</t>
+    <t>当たり前を、ずっと望んでいた。,厳しい父に、叱られたかった。,優しい母に、包まれたかった。,他人の家族を羨んだ。,自分の母親に失望した。,父の顔を思い出したかった。,・・・母の笑顔ももう思い出せない。,・・・・・・</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">-1 </t>
-  </si>
-  <si>
-    <t>0,1,0</t>
   </si>
   <si>
     <t>1</t>
@@ -119,6 +116,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -127,16 +131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,9 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,28 +168,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -195,23 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +221,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,23 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +275,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,157 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,20 +480,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,9 +552,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,7 +568,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,13 +577,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -595,130 +592,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1090,21 +1090,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="162" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1112,8 +1112,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1127,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1144,8 +1144,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1159,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1176,8 +1176,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1191,16 +1191,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1208,8 +1208,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1223,16 +1223,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1240,8 +1240,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1255,16 +1255,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1272,8 +1272,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I7">
         <v>6</v>

--- a/Assets/Scenario.xlsx
+++ b/Assets/Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9900" windowHeight="11970"/>
+    <workbookView windowWidth="24300" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>senarioNo</t>
   </si>
@@ -46,7 +46,7 @@
     <t>endingNo</t>
   </si>
   <si>
-    <t>当たり前を、ずっと望んでいた。,厳しい父に、叱られたかった。,優しい母に、包まれたかった。,他人の家族を羨んだ。,自分の母親に失望した。,父の顔を思い出したかった。,・・・母の笑顔ももう思い出せない。,・・・・・・</t>
+    <t>当たり前を、ずっと望んでいた。</t>
   </si>
   <si>
     <t/>
@@ -58,7 +58,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ssss</t>
+    <t>厳しい父に、叱られたかった。</t>
   </si>
   <si>
     <t>-1</t>
@@ -67,28 +67,187 @@
     <t>2</t>
   </si>
   <si>
-    <t>xxxxx</t>
+    <t>優しい母に、包まれたかった。</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>他人の家族を羨んだ。</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>cccc</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>dddd</t>
+    <t>父の顔を思い出したかった。</t>
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>・・・母の笑顔ももう思い出せない。</t>
+  </si>
+  <si>
+    <t>・・・・・・</t>
+  </si>
+  <si>
+    <t>ガタンッ</t>
+  </si>
+  <si>
+    <t>山道を進むバスが大きく揺れる。</t>
+  </si>
+  <si>
+    <t>「少し、ブルーになってるな」</t>
+  </si>
+  <si>
+    <t>今日から新しい生活が始まる。</t>
+  </si>
+  <si>
+    <t>俺は決めたんだ、ここ『磯野』で変わると。</t>
+  </si>
+  <si>
+    <t>バスを降りた先に、真っ青な海が広がる。</t>
+  </si>
+  <si>
+    <t>その青を包み込むように、白い砂浜が長く続く。</t>
+  </si>
+  <si>
+    <t>「それにしても疲れたな」</t>
+  </si>
+  <si>
+    <t>バスに座りっぱなしで2時間はきつすぎる。</t>
+  </si>
+  <si>
+    <t>「山と海に囲まれた村か」</t>
+  </si>
+  <si>
+    <t>地図にも載らないような小さな集落。</t>
+  </si>
+  <si>
+    <t>期待と不安、両方の感情が入り混じっている。</t>
+  </si>
+  <si>
+    <t>「初めて学校に行くときとかもこんな気持ちだったっけ」</t>
+  </si>
+  <si>
+    <t>そんなことを考えながら海沿いを歩いていると、その先に一人の少女がいた。</t>
+  </si>
+  <si>
+    <t>彼女は、海をじっと見つめている。</t>
+  </si>
+  <si>
+    <t>何かを探すように、何かを求めるように。</t>
+  </si>
+  <si>
+    <t>その少女の儚い横顔がどこか懐かしい。</t>
+  </si>
+  <si>
+    <t>「どこかで・・・」</t>
+  </si>
+  <si>
+    <t>漏れた声に気がつき、彼女がこっちに顔を向ける。</t>
+  </si>
+  <si>
+    <t>さっきまでの儚さとは裏腹に今は活気にあふれた笑顔だ。</t>
+  </si>
+  <si>
+    <t>「やっほ」</t>
+  </si>
+  <si>
+    <t>「お、おう」</t>
+  </si>
+  <si>
+    <t>初対面とは思えないほどフレンドリーだな。</t>
+  </si>
+  <si>
+    <t>やっぱり昔どこかで会ったことが・・・</t>
+  </si>
+  <si>
+    <t>「えっと、どこかで会ったことあったか？」</t>
+  </si>
+  <si>
+    <t>「悪い、俺全然覚えてなくて」</t>
+  </si>
+  <si>
+    <t>親父の故郷みたいだし、昔に来たことがあったのかもしれないけど。</t>
+  </si>
+  <si>
+    <t>「安心して、初対面だよ」</t>
+  </si>
+  <si>
+    <t>彼女はくすりと笑う。</t>
+  </si>
+  <si>
+    <t>「私は日菜。住之江日菜だよ」</t>
+  </si>
+  <si>
+    <t>「よろしくね」</t>
+  </si>
+  <si>
+    <t>「よ、よろしく」</t>
+  </si>
+  <si>
+    <t>結構ぐいぐいくるな。</t>
+  </si>
+  <si>
+    <t>「ところで、なんで知ってたんだ？」</t>
+  </si>
+  <si>
+    <t>「なにを？」</t>
+  </si>
+  <si>
+    <t>「名前」</t>
+  </si>
+  <si>
+    <t>「あー、それはね」</t>
+  </si>
+  <si>
+    <t>「この村の人ならだれでも知ってるよ」</t>
+  </si>
+  <si>
+    <t>「水葉さんのところに男の子が来ることも、その子の名前が零ってことも」</t>
+  </si>
+  <si>
+    <t>「なるほど、それで見ない顔だったから」</t>
+  </si>
+  <si>
+    <t>彼女はまた笑う。</t>
+  </si>
+  <si>
+    <t>「まあ、同い年だし仲良くしてくれたまえ」</t>
+  </si>
+  <si>
+    <t>「ああ、よろしく」</t>
+  </si>
+  <si>
+    <t>来たばかりで友達ができるなんてな。</t>
+  </si>
+  <si>
+    <t>友だちか、ここに来る前は・・・</t>
+  </si>
+  <si>
+    <t>いや、やめよう。</t>
+  </si>
+  <si>
+    <t>あの頃とはもう違うんだ。</t>
+  </si>
+  <si>
+    <t>「そういや、こんなとこで何してたんだ？」</t>
+  </si>
+  <si>
+    <t>「うーん、なんだろね」</t>
+  </si>
+  <si>
+    <t>「わかんないや」</t>
+  </si>
+  <si>
+    <t>「な、なるほど？」</t>
+  </si>
+  <si>
+    <t>なんか、変な奴だな。</t>
   </si>
 </sst>
 </file>
@@ -101,7 +260,7 @@
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,10 +275,17 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,6 +297,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -140,14 +358,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,29 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -200,48 +411,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,13 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,181 +440,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +669,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,8 +700,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,23 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,7 +733,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,13 +742,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -592,125 +757,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +884,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1040,22 +1211,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="15.775" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.775" customWidth="1"/>
+    <col min="6" max="6" width="16.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1090,20 +1261,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:10">
+    <row r="2" ht="27" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1">
@@ -1112,7 +1283,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I2">
@@ -1129,13 +1300,13 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1">
@@ -1144,7 +1315,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I3">
@@ -1154,20 +1325,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="25.5" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1">
@@ -1176,7 +1347,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I4">
@@ -1190,16 +1361,16 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1">
@@ -1208,7 +1379,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I5">
@@ -1222,16 +1393,16 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1">
@@ -1240,8 +1411,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1250,20 +1421,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" ht="25.5" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1">
@@ -1272,8 +1443,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>24</v>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1282,8 +1453,321 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" ht="38.25" spans="2:3">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="2:3">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="2:3">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="2:3">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" spans="2:3">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="38.25" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="38.25" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="51" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="38.25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" ht="38.25" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="51" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" ht="38.25" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" ht="38.25" spans="2:2">
+      <c r="B43" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" ht="63.75" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" ht="38.25" spans="2:2">
+      <c r="B51" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" spans="2:2">
+      <c r="B61" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>